--- a/dataset/processed/Ignored/Ignore Loans Data.xlsx
+++ b/dataset/processed/Ignored/Ignore Loans Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,7 +950,11 @@
           <t>326</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>222-003 - samity3</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>1029</t>
@@ -1035,7 +1039,7 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>System Generated Samity Information, System Generated Member Information</t>
+          <t>System Generated Member Information</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1052,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1059,12 +1063,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2015-02-24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SME-001-001-008-1</t>
+          <t>SME-001-001-009-1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1079,7 +1083,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2015-02-04</t>
+          <t>2015-03-11</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1104,7 +1108,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Fish farming</t>
+          <t>Guava garden</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -1116,7 +1120,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>47448</t>
+          <t>67948</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1143,7 +1147,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1154,12 +1158,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2015-02-24</t>
+          <t>2014-11-17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SME-001-001-009-1</t>
+          <t>SME-001-001-011-1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1174,7 +1178,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2015-03-11</t>
+          <t>2014-12-03</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1184,7 +1188,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1194,29 +1198,29 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Guava garden</t>
+          <t>Litchi garden</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>67948</t>
+          <t>62354</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1238,7 +1242,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1249,12 +1253,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2014-11-17</t>
+          <t>2013-04-17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SME-001-001-011-1</t>
+          <t>SME-001-001-012-1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1269,7 +1273,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2014-12-03</t>
+          <t>2013-05-08</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1279,7 +1283,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1289,29 +1293,29 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Litchi garden</t>
+          <t>Mango orchard</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>62354</t>
+          <t>55058</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>30.43</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="U9" t="inlineStr"/>
@@ -1333,7 +1337,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1344,12 +1348,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2013-04-17</t>
+          <t>2008-08-27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SME-001-001-012-1</t>
+          <t>SME-001-001-013-1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1364,7 +1368,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2013-05-08</t>
+          <t>2008-09-17</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1374,7 +1378,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1384,29 +1388,29 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>500</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Mango orchard</t>
+          <t>Nursary</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>55058</t>
+          <t>23436</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1428,7 +1432,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1439,12 +1443,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2012-11-27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SME-001-001-013-1</t>
+          <t>SME-001-001-014-1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1459,7 +1463,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2008-09-17</t>
+          <t>2012-12-12</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1469,7 +1473,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1479,29 +1483,29 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Nursary</t>
+          <t>Others agriculture</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>23436</t>
+          <t>89730</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1523,7 +1527,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1534,12 +1538,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2012-11-27</t>
+          <t>2013-07-23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SME-001-001-014-1</t>
+          <t>SME-001-001-015-1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1554,7 +1558,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2012-12-12</t>
+          <t>2013-08-07</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1564,7 +1568,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1574,29 +1578,29 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Others agriculture</t>
+          <t>Paddy cultivation</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>89730</t>
+          <t>42411</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>30.43</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
@@ -1618,7 +1622,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1634,7 +1638,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SME-001-001-015-1</t>
+          <t>SME-001-001-016-1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1674,7 +1678,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Paddy cultivation</t>
+          <t>Plum cultivation</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>42411</t>
+          <t>38682</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1713,7 +1717,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1724,12 +1728,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2013-07-23</t>
+          <t>2012-09-17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SME-001-001-016-1</t>
+          <t>SME-001-001-017-1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1744,7 +1748,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2013-08-07</t>
+          <t>2012-10-03</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1754,7 +1758,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1764,29 +1768,29 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>700</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Plum cultivation</t>
+          <t>Poltry firm</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>38682</t>
+          <t>37127</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="U14" t="inlineStr"/>
@@ -1808,7 +1812,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1819,12 +1823,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2012-09-17</t>
+          <t>2012-11-17</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SME-001-001-017-1</t>
+          <t>SME-001-001-018-1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1839,7 +1843,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2012-10-03</t>
+          <t>2012-12-05</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1849,7 +1853,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1859,29 +1863,29 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Poltry firm</t>
+          <t>Potato cultivation</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>37127</t>
+          <t>64520</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="U15" t="inlineStr"/>
@@ -1903,7 +1907,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1914,12 +1918,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2012-11-17</t>
+          <t>2012-05-12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SME-001-001-018-1</t>
+          <t>SME-001-001-019-1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1934,7 +1938,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2012-12-05</t>
+          <t>2012-05-30</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1944,7 +1948,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1954,29 +1958,29 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>500</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Potato cultivation</t>
+          <t>Raising goats</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>64520</t>
+          <t>5265</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="U16" t="inlineStr"/>
@@ -1998,7 +2002,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -2009,12 +2013,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2012-05-12</t>
+          <t>2015-03-15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SME-001-001-019-1</t>
+          <t>SME-001-001-020-1</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2029,7 +2033,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2012-05-30</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2054,7 +2058,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Raising goats</t>
+          <t>Spice Plantations</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2066,7 +2070,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5265</t>
+          <t>41155</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2087,13 +2091,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -2104,12 +2108,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2015-03-15</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SME-001-001-020-1</t>
+          <t>SME-001-006-004-11</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2124,17 +2128,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2019-03-02</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2144,7 +2148,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>700</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2156,17 +2160,17 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>41155</t>
+          <t>78750</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
@@ -2182,29 +2186,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>JAGO-W</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>JAGO-W-001-005-005-1</t>
+          <t>SME-001-006-004-12</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2219,17 +2223,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2020-02-08</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2239,24 +2243,24 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>700</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Cow fattening</t>
+          <t>Vegetable cultivation</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>67500</t>
+          <t>78750</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2277,29 +2281,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>JAGO-W</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2019-08-26</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>JAGO-W-001-005-008-1</t>
+          <t>SME-001-006-009-4</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2314,17 +2318,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2019-09-14</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2334,24 +2338,24 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Litchi garden</t>
+          <t>Guava garden</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>33750</t>
+          <t>112500</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2378,23 +2382,23 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ME-W</t>
+          <t>JAGO-W</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SME-001-006-004-11</t>
+          <t>JAGO-W-001-006-017-1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2409,12 +2413,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2019-03-02</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2434,7 +2438,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Spice Plantations</t>
+          <t>Vegetable cultivation</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2473,7 +2477,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -2484,12 +2488,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SME-001-006-004-12</t>
+          <t>ME-W-001-006-031-1</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2504,17 +2508,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2020-02-08</t>
+          <t>2023-01-22</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2524,24 +2528,24 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Vegetable cultivation</t>
+          <t>Agricultural tools</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>78750</t>
+          <t>135000</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2568,7 +2572,7 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2579,12 +2583,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2019-08-26</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SME-001-006-009-4</t>
+          <t>ME-W-001-006-031-2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2599,12 +2603,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2019-09-14</t>
+          <t>2024-02-11</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2624,7 +2628,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Guava garden</t>
+          <t>Banana cultivation</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2663,7 +2667,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2674,12 +2678,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>JAGO-W-001-006-017-1</t>
+          <t>JAGO-W-001-006-032-1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2694,7 +2698,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2704,7 +2708,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2714,24 +2718,24 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>600</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Vegetable cultivation</t>
+          <t>Guava garden</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>78750</t>
+          <t>67500</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2758,23 +2762,23 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ME-W</t>
+          <t>JAGO-W</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ME-W-001-006-031-1</t>
+          <t>JAGO-W-001-006-034-1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2789,7 +2793,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2023-01-22</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2799,7 +2803,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2809,24 +2813,24 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Agricultural tools</t>
+          <t>Cow fattening</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>135000</t>
+          <t>56250</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2853,23 +2857,23 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ME-W</t>
+          <t>JAGO-W</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ME-W-001-006-031-2</t>
+          <t>JAGO-W-001-006-035-1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2884,17 +2888,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2904,24 +2908,24 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Banana cultivation</t>
+          <t>Fish farming</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>112500</t>
+          <t>101250</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2942,29 +2946,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>JAGO-W</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2023-02-26</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>JAGO-W-001-006-032-1</t>
+          <t>ME-W-001-007-002-10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2979,17 +2983,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>130000</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2999,24 +3003,24 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Guava garden</t>
+          <t>Others agriculture</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>67500</t>
+          <t>146250</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3037,29 +3041,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>JAGO-W</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>JAGO-W-001-006-034-1</t>
+          <t>ME-W-001-007-002-11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3074,17 +3078,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>150000</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3094,24 +3098,24 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Cow fattening</t>
+          <t>Paddy cultivation</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>56250</t>
+          <t>168750</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3132,13 +3136,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -3149,12 +3153,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>JAGO-W-001-006-035-1</t>
+          <t>JAGO-W-001-008-007-1</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3169,7 +3173,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3179,7 +3183,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3189,24 +3193,24 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>150</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Fish farming</t>
+          <t>Banana cultivation</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>375</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>101250</t>
+          <t>16875</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3227,29 +3231,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ME-W</t>
+          <t>JAGO-W</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023-02-26</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ME-W-001-007-002-10</t>
+          <t>JAGO-W-001-008-008-1</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3264,17 +3268,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-02-11</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>130000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3284,24 +3288,24 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Others agriculture</t>
+          <t>Dairy firm</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>375</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>146250</t>
+          <t>16875</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3319,291 +3323,6 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1610</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ME-W</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2024-01-24</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>ME-W-001-007-002-11</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Paddy cultivation</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>3750</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>168750</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>System Generated Samity Information, System Generated Member Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1641</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>JAGO-W</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>JAGO-W-001-008-007-1</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>15000</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Banana cultivation</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>16875</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>System Generated Samity Information, System Generated Member Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1647</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>JAGO-W</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>JAGO-W-001-008-008-1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2024-02-11</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>15000</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Dairy firm</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>16875</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>System Generated Samity Information, System Generated Member Information</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
